--- a/Excel/Target/sample2.xlsx
+++ b/Excel/Target/sample2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD5927-7429-4B20-87D7-0EEEEB32FDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65348942-0735-4AC5-87D6-FFF55AA4672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>ActiveCell</t>
     <phoneticPr fontId="1"/>
@@ -31,6 +31,35 @@
   </si>
   <si>
     <t>3Page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.B.D.aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定ではこれも</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copyright AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD 二つ目</t>
+    <rPh sb="4" eb="5">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -91,6 +120,398 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638252" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C93567D-4A4F-E0B6-DE64-3D22C886237E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="2297906"/>
+          <a:ext cx="638252" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TestBox</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638252" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5657D369-FC0B-BC72-B58D-13722B8F2EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3675856" y="3940968"/>
+          <a:ext cx="638252" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TestBox</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TBD</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>615949</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638252" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61075D06-3990-DF68-EF6F-5BDC6BD14135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973262" y="5512593"/>
+          <a:ext cx="638252" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TestBox</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TBD22</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D4BFDA-80A4-56D8-37CD-A4637109EC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1559719" y="714375"/>
+          <a:ext cx="2476500" cy="130969"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654844</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A810E7-1755-55C9-DE75-3C7A1CB7B5AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654844" y="1476375"/>
+          <a:ext cx="619125" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627855</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110330</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AA50C1-B6B0-8FCB-2B0C-87B0D82BBC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3342480" y="1285875"/>
+          <a:ext cx="1518444" cy="678656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,15 +778,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C5:K43"/>
+  <dimension ref="B5:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="3:11">
+    <row r="5" spans="2:11">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -376,12 +797,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="2:11">
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="3:3">
@@ -397,5 +851,6 @@
     <oddHeader>&amp;Laa&amp;Cbb&amp;Rcc</oddHeader>
     <oddFooter>&amp;Ldd&amp;C&amp;"BIZ UDPゴシック,標準"&amp;8ee&amp;R&amp;20ff</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Target/sample2.xlsx
+++ b/Excel/Target/sample2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65348942-0735-4AC5-87D6-FFF55AA4672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17736"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +16,46 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント内TBD抽出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント内TBD抽出</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +120,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,6 +558,292 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121444</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="807244" y="3319462"/>
+          <a:ext cx="1188244" cy="990600"/>
+          <a:chOff x="807244" y="3319462"/>
+          <a:chExt cx="1188244" cy="990600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="楕円 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A810E7-1755-55C9-DE75-3C7A1CB7B5AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="807244" y="3319462"/>
+            <a:ext cx="626269" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="楕円 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A810E7-1755-55C9-DE75-3C7A1CB7B5AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1369219" y="3509962"/>
+            <a:ext cx="626269" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="楕円 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A810E7-1755-55C9-DE75-3C7A1CB7B5AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="978694" y="3805237"/>
+            <a:ext cx="626269" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3514725" y="5334000"/>
+          <a:ext cx="1619250" cy="612648"/>
+          <a:chOff x="3514725" y="5334000"/>
+          <a:chExt cx="1619250" cy="612648"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="フローチャート: 定義済み処理 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3514725" y="5334000"/>
+            <a:ext cx="1619250" cy="612648"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPredefinedProcess">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3695700" y="5457825"/>
+            <a:ext cx="1238250" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>グループ化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>TBD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -776,12 +1109,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B5:K43"/>
+  <dimension ref="A5:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -805,6 +1138,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="2:11"/>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>3</v>
@@ -823,21 +1157,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="1:5">
       <c r="E20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5">
       <c r="C24" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="32" spans="1:5"/>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
         <v>1</v>
@@ -852,5 +1187,6 @@
     <oddFooter>&amp;Ldd&amp;C&amp;"BIZ UDPゴシック,標準"&amp;8ee&amp;R&amp;20ff</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>